--- a/data/trans_dic/P36$nada-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36$nada-Provincia-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007092617205262906</v>
+        <v>0.007067019646137684</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01815044953379855</v>
+        <v>0.0183685021405881</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007663594730038218</v>
+        <v>0.007298378786524577</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.007626735203380805</v>
+        <v>0.007656827644103823</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01772552749495079</v>
+        <v>0.0143284355273781</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.003640483821994607</v>
+        <v>0.003605008402244114</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.009950982638920001</v>
+        <v>0.009254594657370911</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02021135731367574</v>
+        <v>0.02172897140454498</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.008216254746615427</v>
+        <v>0.008287791384668251</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04534103032282596</v>
+        <v>0.04801660141969188</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06497821013234327</v>
+        <v>0.0606837612131724</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04433685420513405</v>
+        <v>0.04704462388403009</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04321792174888291</v>
+        <v>0.04326969496885057</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06832348496075781</v>
+        <v>0.06442285577936849</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03191001887794966</v>
+        <v>0.03335456959650378</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03442620536069913</v>
+        <v>0.03593993032093713</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05269758769006606</v>
+        <v>0.05496583298619238</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0322797160258778</v>
+        <v>0.03261695477310516</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02490548814869473</v>
+        <v>0.02504622579062319</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01360409436561693</v>
+        <v>0.01338542889037156</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006028835618244336</v>
+        <v>0.006004368637472448</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01308915770798273</v>
+        <v>0.01282692227532829</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.009697651306193893</v>
+        <v>0.01136236570092674</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.003674632755394027</v>
+        <v>0.002782649958911361</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02197983783432818</v>
+        <v>0.02165661027564323</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0153953272339625</v>
+        <v>0.01453516702798168</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.005859821931476189</v>
+        <v>0.005927230695420282</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05888574678513953</v>
+        <v>0.06012743957504896</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04317802927566113</v>
+        <v>0.04392593503247078</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02699250680302233</v>
+        <v>0.02724848458929595</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03979992041481524</v>
+        <v>0.03965830495395316</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03821435536787993</v>
+        <v>0.0405467989139183</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02077820139384439</v>
+        <v>0.01885657736246222</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04354471023261133</v>
+        <v>0.04331150554814536</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03498204879749616</v>
+        <v>0.03681171076781792</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01955995702489631</v>
+        <v>0.01998340742021548</v>
       </c>
     </row>
     <row r="10">
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003219376746964499</v>
+        <v>0.004304952825126478</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002696449599044057</v>
+        <v>0.002712158329394769</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.002873555277782746</v>
+        <v>0.002877172077198683</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.004871489287972226</v>
+        <v>0.00460671680250074</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.002707884418141787</v>
+        <v>0.002708321983676303</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01423542712677511</v>
+        <v>0.01468848118093559</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03030237346343385</v>
+        <v>0.03426428961780675</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02294036925405084</v>
+        <v>0.02483101848121604</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01502018066295968</v>
+        <v>0.0148733275920965</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03285886801663705</v>
+        <v>0.03291166464945836</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01848452451214301</v>
+        <v>0.0184896984563578</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01007884081585268</v>
+        <v>0.009831205928069952</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02610407279713373</v>
+        <v>0.02490969734554078</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01507368418190406</v>
+        <v>0.01523599999824544</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02152154264057081</v>
+        <v>0.01990998510189125</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02134122805953264</v>
+        <v>0.02138551530941725</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01849516211876463</v>
+        <v>0.01896092656541239</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.002620749893251469</v>
+        <v>0.002649132207398253</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.002773582782033228</v>
+        <v>0.00277661523360998</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.006295491520053747</v>
+        <v>0.007001755079619602</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01397322043842126</v>
+        <v>0.01363566647588832</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01445425690447068</v>
+        <v>0.01472636987038936</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01649498166478212</v>
+        <v>0.01705767186716328</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0635717239773582</v>
+        <v>0.06096877394236745</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07099004861736502</v>
+        <v>0.06738535318790788</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06139162927173138</v>
+        <v>0.06422206285173078</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02477666376955119</v>
+        <v>0.02516197976660847</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02741734040347477</v>
+        <v>0.02749055344145133</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03750460630610378</v>
+        <v>0.03493406489781348</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03687510105370495</v>
+        <v>0.03716361353551822</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04039653762729464</v>
+        <v>0.04141394076031008</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04186490996725897</v>
+        <v>0.04306810250328511</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008951957272003428</v>
+        <v>0.009026907292989673</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0144334794199727</v>
+        <v>0.01378864247982774</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.004691815399988197</v>
+        <v>0.004775550187767094</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.008504682189082338</v>
+        <v>0.008554105985457441</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.006625269813081243</v>
+        <v>0.007435116641292184</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01530651476574003</v>
+        <v>0.01481706641546195</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.004381914072120838</v>
+        <v>0.004245391847787374</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05275040411529916</v>
+        <v>0.05659241738759035</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08663397427161681</v>
+        <v>0.08462384145957208</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05124597237044919</v>
+        <v>0.05654111783744049</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03460727452921607</v>
+        <v>0.03145793257538383</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05229387799448135</v>
+        <v>0.05299199007340653</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01751197005787593</v>
+        <v>0.01892781333407954</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03287141646944906</v>
+        <v>0.03223855146078989</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05603394352559453</v>
+        <v>0.05243986858836343</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02698739598629338</v>
+        <v>0.03003835230334341</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003115164875927195</v>
+        <v>0.00311980576984578</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01413584412104091</v>
+        <v>0.01425418076725616</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01134591584591142</v>
+        <v>0.0113321154354623</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.003386191360577781</v>
+        <v>0.003394587500389439</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.003216233149800538</v>
+        <v>0.00322587262152098</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01717042984931811</v>
+        <v>0.01547749767364284</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.005114456390179797</v>
+        <v>0.003943264721918261</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.011770964162969</v>
+        <v>0.01231165996962131</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01699299765368119</v>
+        <v>0.01744044378645435</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02965946306005798</v>
+        <v>0.02893240703263771</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06723918976753855</v>
+        <v>0.06477257992162398</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05759125356452916</v>
+        <v>0.05017049435476095</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03181262579877893</v>
+        <v>0.03027923546514592</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03074697577208166</v>
+        <v>0.03097406053687366</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06250664907571302</v>
+        <v>0.05895039039238193</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02373238474104473</v>
+        <v>0.02253741168109738</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0406847707264141</v>
+        <v>0.0429870112708898</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04782497390127843</v>
+        <v>0.04777744934661294</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.006150473103795187</v>
+        <v>0.00710673102900311</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01885958957486293</v>
+        <v>0.0181246311577236</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.007881636045324419</v>
+        <v>0.008222646380295334</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.009349411005871925</v>
+        <v>0.009134468077244429</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01304022713501262</v>
+        <v>0.01340756200551366</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.001389359673135374</v>
+        <v>0.001469307494002662</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.0102532477686804</v>
+        <v>0.009924908125476098</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01951994976207565</v>
+        <v>0.01837894948802446</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.00617762655367303</v>
+        <v>0.006142726322296174</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02816485142662975</v>
+        <v>0.02968359808975959</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04972241439263983</v>
+        <v>0.04794288118324169</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03078657040785383</v>
+        <v>0.03304284595498582</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.0317065304913245</v>
+        <v>0.03232426660342036</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03740019716281903</v>
+        <v>0.03634289462510362</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.01317926509356945</v>
+        <v>0.01301713986473552</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02571519293437515</v>
+        <v>0.02528609780144571</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03900382350482473</v>
+        <v>0.03780007615530537</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01889101579718574</v>
+        <v>0.01931542748994427</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.007665143671732737</v>
+        <v>0.007936911928403239</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.005227744577338557</v>
+        <v>0.005058172079889423</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.007677801321652179</v>
+        <v>0.007721223929011822</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01135805692008294</v>
+        <v>0.01222034156201777</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.003756328128501991</v>
+        <v>0.003805391184148361</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.001190093045967016</v>
+        <v>0.001197108863350825</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01220264189499723</v>
+        <v>0.01194027342615287</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.005778987228427235</v>
+        <v>0.005931622025797205</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.005518224634808993</v>
+        <v>0.005655022360454826</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02541704100552487</v>
+        <v>0.0262494903922393</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02323173697282877</v>
+        <v>0.02426841051195271</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02690721950483844</v>
+        <v>0.02706493192780617</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03184374175231083</v>
+        <v>0.03362678121083978</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.01702884312627568</v>
+        <v>0.01682658109055668</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01189535812815865</v>
+        <v>0.01198592334402631</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02513855249306185</v>
+        <v>0.02494927233965076</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01647156734434321</v>
+        <v>0.01708420535115909</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01552606529440054</v>
+        <v>0.01552128013446775</v>
       </c>
     </row>
     <row r="28">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01608286133493024</v>
+        <v>0.01619647215377049</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02055983347526292</v>
+        <v>0.02043581399539614</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01432638603048536</v>
+        <v>0.01454930022853858</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.01178314648780806</v>
+        <v>0.01220967101594633</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.01329493609107782</v>
+        <v>0.01309830717442398</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.006993772900879336</v>
+        <v>0.007013848961830132</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.01506729803006513</v>
+        <v>0.01513667288978565</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.0178755089066776</v>
+        <v>0.01799261463522229</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.01146473830441433</v>
+        <v>0.01157951227457314</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02621956275492163</v>
+        <v>0.02580426748876458</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.03263404772713859</v>
+        <v>0.03201846767671761</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.0245757543463508</v>
+        <v>0.02434235876149093</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.02073001770390494</v>
+        <v>0.01989433497439333</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.02194557548608502</v>
+        <v>0.02217480766831566</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.01398358279815832</v>
+        <v>0.01366190251182106</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.02164596317607302</v>
+        <v>0.02196577478352129</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.02553845944597211</v>
+        <v>0.02556693618212707</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.01741665327616131</v>
+        <v>0.01762268595374336</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1924</v>
+        <v>1917</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5350</v>
+        <v>5414</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2251</v>
+        <v>2144</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1981</v>
+        <v>1989</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5075</v>
+        <v>4102</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5284</v>
+        <v>4914</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11744</v>
+        <v>12625</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4786</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12298</v>
+        <v>13024</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>19152</v>
+        <v>17886</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13024</v>
+        <v>13820</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11227</v>
+        <v>11240</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19561</v>
+        <v>18445</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9213</v>
+        <v>9630</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>18281</v>
+        <v>19084</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>30620</v>
+        <v>31938</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>18802</v>
+        <v>18998</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>12254</v>
+        <v>12324</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6863</v>
+        <v>6753</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3017</v>
+        <v>3005</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6596</v>
+        <v>6464</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5060</v>
+        <v>5928</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1922</v>
+        <v>1456</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>21892</v>
+        <v>21570</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>15799</v>
+        <v>14916</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>5997</v>
+        <v>6066</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28974</v>
+        <v>29585</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21783</v>
+        <v>22160</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13507</v>
+        <v>13635</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>20057</v>
+        <v>19986</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>19938</v>
+        <v>21155</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10869</v>
+        <v>9864</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>43370</v>
+        <v>43138</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>35899</v>
+        <v>37777</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>20019</v>
+        <v>20452</v>
       </c>
     </row>
     <row r="12">
@@ -2130,16 +2130,16 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1040</v>
+        <v>1391</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
@@ -2148,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3235</v>
+        <v>3060</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4539</v>
+        <v>4683</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9792</v>
+        <v>11072</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7308</v>
+        <v>7910</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5038</v>
+        <v>4989</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11206</v>
+        <v>11224</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6217</v>
+        <v>6218</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6594</v>
+        <v>6432</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17337</v>
+        <v>16544</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>9871</v>
+        <v>9978</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7698</v>
+        <v>7122</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7958</v>
+        <v>7975</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6843</v>
+        <v>7015</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>973</v>
+        <v>984</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2438</v>
+        <v>2712</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>10188</v>
+        <v>9942</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>11012</v>
+        <v>11219</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>12491</v>
+        <v>12917</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22739</v>
+        <v>21808</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26472</v>
+        <v>25128</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>22713</v>
+        <v>23760</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>9203</v>
+        <v>9347</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>10664</v>
+        <v>10692</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>14525</v>
+        <v>13529</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>26887</v>
+        <v>27098</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>30776</v>
+        <v>31551</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>31702</v>
+        <v>32613</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1812</v>
+        <v>1827</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3069</v>
+        <v>2932</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1868</v>
+        <v>1878</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2710</v>
+        <v>3042</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>6616</v>
+        <v>6404</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1883</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>10677</v>
+        <v>11455</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18420</v>
+        <v>17993</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>10824</v>
+        <v>11943</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>7152</v>
+        <v>6501</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>11483</v>
+        <v>11637</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3828</v>
+        <v>4137</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>13447</v>
+        <v>13188</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>24218</v>
+        <v>22665</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>11599</v>
+        <v>12911</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3873</v>
+        <v>3905</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>4669</v>
+        <v>4209</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2808</v>
+        <v>2165</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>6509</v>
+        <v>6808</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>9092</v>
+        <v>9331</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8032</v>
+        <v>7835</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>18422</v>
+        <v>17746</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>15154</v>
+        <v>13201</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>8848</v>
+        <v>8422</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8578</v>
+        <v>8642</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>16997</v>
+        <v>16030</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>13028</v>
+        <v>12372</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>22498</v>
+        <v>23771</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>25588</v>
+        <v>25563</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3770</v>
+        <v>4356</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>12500</v>
+        <v>12013</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5161</v>
+        <v>5384</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>5949</v>
+        <v>5812</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>9048</v>
+        <v>9303</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>958</v>
+        <v>1013</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>12809</v>
+        <v>12399</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>26482</v>
+        <v>24934</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>8303</v>
+        <v>8256</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>17265</v>
+        <v>18196</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>32955</v>
+        <v>31776</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>20158</v>
+        <v>21636</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>20174</v>
+        <v>20567</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>25950</v>
+        <v>25217</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>9084</v>
+        <v>8972</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>32125</v>
+        <v>31589</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>52914</v>
+        <v>51281</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>25390</v>
+        <v>25960</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>5701</v>
+        <v>5903</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>4058</v>
+        <v>3926</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>5978</v>
+        <v>6012</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>8899</v>
+        <v>9575</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>3087</v>
+        <v>3127</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>18637</v>
+        <v>18236</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>9235</v>
+        <v>9479</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>8855</v>
+        <v>9075</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>18905</v>
+        <v>19524</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>18033</v>
+        <v>18838</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>20950</v>
+        <v>21072</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>24950</v>
+        <v>26347</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>13993</v>
+        <v>13827</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>9828</v>
+        <v>9902</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>38394</v>
+        <v>38105</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>26321</v>
+        <v>27300</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>24915</v>
+        <v>24908</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>52588</v>
+        <v>52959</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>70333</v>
+        <v>69908</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>48572</v>
+        <v>49328</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>39770</v>
+        <v>41210</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>47226</v>
+        <v>46528</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>24767</v>
+        <v>24838</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>100122</v>
+        <v>100583</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>124647</v>
+        <v>125464</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>79470</v>
+        <v>80265</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>85733</v>
+        <v>84375</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>111637</v>
+        <v>109531</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>83321</v>
+        <v>82530</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>69967</v>
+        <v>67147</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>77955</v>
+        <v>78769</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>49520</v>
+        <v>48381</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>143837</v>
+        <v>145962</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>178081</v>
+        <v>178280</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>120726</v>
+        <v>122155</v>
       </c>
     </row>
     <row r="40">
